--- a/shinyApp/data/unemployment.xlsx
+++ b/shinyApp/data/unemployment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierebstock/Desktop/Virginia-Tech/DSPG-2021/Floyd-County/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB013D9-CA0A-1A47-B33F-BA7E1B09C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC562166-AC10-6443-8229-71DBAD38DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{BE1A8556-3F86-AB47-A718-85CFC797C420}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Floyd County</t>
   </si>
   <si>
     <t>Virginia</t>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3639078-3CD9-F24E-AC18-47DDA64C72CB}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,20 +417,20 @@
     <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -441,14 +438,10 @@
       <c r="C2" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D2">
-        <f>C2*100</f>
-        <v>3.6999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2001</v>
@@ -456,14 +449,10 @@
       <c r="C3" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D31" si="0">C3*100</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2002</v>
@@ -471,14 +460,10 @@
       <c r="C4" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2003</v>
@@ -486,26 +471,10 @@
       <c r="C5" s="2">
         <v>0.04</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2004</v>
@@ -513,26 +482,13 @@
       <c r="C6" s="2">
         <v>0.04</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>2000</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
@@ -540,26 +496,13 @@
       <c r="C7" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3.6999999999999997</v>
-      </c>
-      <c r="L7">
-        <v>2001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -567,26 +510,13 @@
       <c r="C8" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="L8">
-        <v>2002</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2007</v>
@@ -594,26 +524,13 @@
       <c r="C9" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="L9">
-        <v>2003</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>2008</v>
@@ -621,26 +538,13 @@
       <c r="C10" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="L10">
-        <v>2004</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2009</v>
@@ -648,26 +552,13 @@
       <c r="C11" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="L11">
-        <v>2005</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -675,26 +566,13 @@
       <c r="C12" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L12">
-        <v>2006</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>2001</v>
@@ -702,26 +580,13 @@
       <c r="C13" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="L13">
-        <v>2007</v>
-      </c>
-      <c r="M13" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="O13" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>2002</v>
@@ -729,26 +594,13 @@
       <c r="C14" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="L14">
-        <v>2008</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="N14" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>2003</v>
@@ -756,26 +608,13 @@
       <c r="C15" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3.6999999999999997</v>
-      </c>
-      <c r="L15">
-        <v>2009</v>
-      </c>
-      <c r="M15" s="1">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>2004</v>
@@ -783,14 +622,10 @@
       <c r="C16" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>2005</v>
@@ -798,14 +633,10 @@
       <c r="C17" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>2006</v>
@@ -813,14 +644,10 @@
       <c r="C18" s="2">
         <v>0.03</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>2007</v>
@@ -828,14 +655,10 @@
       <c r="C19" s="2">
         <v>0.03</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>2008</v>
@@ -843,14 +666,10 @@
       <c r="C20" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>2009</v>
@@ -858,14 +677,10 @@
       <c r="C21" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>2000</v>
@@ -873,14 +688,10 @@
       <c r="C22" s="2">
         <v>0.04</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>2001</v>
@@ -888,14 +699,10 @@
       <c r="C23" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>2002</v>
@@ -903,14 +710,10 @@
       <c r="C24" s="2">
         <v>0.06</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>2003</v>
@@ -918,14 +721,10 @@
       <c r="C25" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>2004</v>
@@ -933,14 +732,10 @@
       <c r="C26" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>2005</v>
@@ -948,14 +743,10 @@
       <c r="C27" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>2006</v>
@@ -963,14 +754,10 @@
       <c r="C28" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>2007</v>
@@ -978,14 +765,10 @@
       <c r="C29" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>2008</v>
@@ -993,24 +776,16 @@
       <c r="C30" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>5.8000000000000007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31" s="2">
         <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
       </c>
     </row>
   </sheetData>
